--- a/Clase 5 - Programacion funcional/Resultados/miexportacion_piola.xlsx
+++ b/Clase 5 - Programacion funcional/Resultados/miexportacion_piola.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
-    <t xml:space="preserve">Cantidad de Casos por provincia</t>
+    <t xml:space="preserve">Cuadro 1. Cantidad de Casos por provincia</t>
   </si>
   <si>
     <t xml:space="preserve">residencia_provincia_nombre</t>
